--- a/1.document/document.xlsx
+++ b/1.document/document.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Github" sheetId="1" r:id="rId1"/>
+    <sheet name="Deadlock" sheetId="2" r:id="rId2"/>
+    <sheet name="IndexDatabase" sheetId="3" r:id="rId3"/>
+    <sheet name="Authentication Cookie" sheetId="4" r:id="rId4"/>
+    <sheet name="JWT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>branch myHome</t>
   </si>
@@ -43,12 +47,69 @@
   <si>
     <t>CÁCH COMMIT VÀ MERGE SOURCE VÀO BRANCH</t>
   </si>
+  <si>
+    <t>bảng chất của index chính là tạo ra thêm 1 table nhỏ hơn chỉ chứa các cột đánh INDEX</t>
+  </si>
+  <si>
+    <t>ví dụ khi đánh index cột Name thì sẽ tạo ra bảng có cột Name thôi, khi thực hiện search theo Name lấy trong bảng nhỏ trước sau đó sẽ tìm trong bảng chính (nếu lấy thêm cột khác)</t>
+  </si>
+  <si>
+    <t>-&gt; giải pháp là chỉ update 1 lần thôi, ko nên update nhiều lần</t>
+  </si>
+  <si>
+    <t>TRƯỜNG HỢP 1</t>
+  </si>
+  <si>
+    <t>cùng 2 transaction update 2 bảng ngược nhau, khiến bảng này chờ bảng kia kết thúc cho đến vô tận</t>
+  </si>
+  <si>
+    <t>TRƯỜNG HỢP 2</t>
+  </si>
+  <si>
+    <t>update cùng 1 bảng nhiều lần trong 1 transaction vẫn có thể xảy ra deadlock</t>
+  </si>
+  <si>
+    <t>-&gt; giải pháp là update 1 cùng thứ tự để hạn chế deadlock</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Cách sử dụng</t>
+  </si>
+  <si>
+    <t>Tạo BakeryAuthorizeAttribute</t>
+  </si>
+  <si>
+    <t>Thiết lập trong Program.cs để sử dụng Authentication</t>
+  </si>
+  <si>
+    <t>Authentication Và Phân Quyền - Authorization Trong .NET</t>
+  </si>
+  <si>
+    <t>Tạo api  AuthenController</t>
+  </si>
+  <si>
+    <t>JWT hiểu đơn giản giống như 1 chìa khóa, khi user đăng nhập sẽ cấp cho user 1 cái chìa khóa</t>
+  </si>
+  <si>
+    <t>muốn lấy data từ trên server như get/post/delete thì phải đưa cho nó cái chìa khóa</t>
+  </si>
+  <si>
+    <t>Tạo JwtAuthController</t>
+  </si>
+  <si>
+    <t>Thiết lập lại appsetting.json</t>
+  </si>
+  <si>
+    <t>Thiết lập trong Program.cs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +137,22 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -122,6 +199,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,6 +1961,1843 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286719</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="8086725"/>
+          <a:ext cx="6944694" cy="5287113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>229815</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1000125"/>
+          <a:ext cx="8707065" cy="5439534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13666</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151454</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="626579" y="743779"/>
+          <a:ext cx="8105658" cy="4667901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90161</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>36338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="621196" y="952500"/>
+          <a:ext cx="8049748" cy="8145012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>382784</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612913" y="24491674"/>
+          <a:ext cx="8350654" cy="3594652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>33056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629477" y="9375912"/>
+          <a:ext cx="8359556" cy="8373644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50937</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>144532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>166529</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>97100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="663850" y="18921206"/>
+          <a:ext cx="9309288" cy="4905568"/>
+          <a:chOff x="622438" y="18126075"/>
+          <a:chExt cx="9309288" cy="4905568"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="622438" y="18126075"/>
+            <a:ext cx="9309288" cy="4905568"/>
+            <a:chOff x="609600" y="18097500"/>
+            <a:chExt cx="9259592" cy="4905568"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Picture 5"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="18097500"/>
+              <a:ext cx="9259592" cy="3562847"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Picture 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1238250" y="21621750"/>
+              <a:ext cx="5944430" cy="1381318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1549676" y="19516726"/>
+            <a:ext cx="8186945" cy="2114550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1639956" y="22363043"/>
+            <a:ext cx="3238499" cy="646044"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132523</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>57977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971262" y="25692651"/>
+          <a:ext cx="3006586" cy="231913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>135835</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425727</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>69573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1974574" y="27034435"/>
+          <a:ext cx="2741544" cy="193812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1258957" y="2103782"/>
+          <a:ext cx="2708413" cy="836544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268356</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangular Callout 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3945834" y="1676399"/>
+          <a:ext cx="1818863" cy="336274"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56547"/>
+            <a:gd name="adj2" fmla="val 82938"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>API trả</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> về page ko có quyền</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44727</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270553" y="3018181"/>
+          <a:ext cx="7177708" cy="4957971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99389</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546649</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangular Callout 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5002693" y="2211457"/>
+          <a:ext cx="2898913" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56547"/>
+            <a:gd name="adj2" fmla="val 82938"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>API login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>khi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> login sẽ vào hàm này và thiết lập Cookie dựa trên user login</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480392</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1258957" y="8075543"/>
+          <a:ext cx="5350565" cy="985631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>563216</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangular Callout 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6220239" y="8191499"/>
+          <a:ext cx="2923760" cy="745435"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -127935"/>
+            <a:gd name="adj2" fmla="val -23729"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>API logout</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>khi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>logout</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sẽ vào hàm này và remove Cookie dựa trên user login</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179784</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660539" y="2103783"/>
+          <a:ext cx="4422549" cy="2521788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>462085</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612914" y="762001"/>
+          <a:ext cx="2300823" cy="1137808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371022" y="762001"/>
+          <a:ext cx="2252869" cy="1107292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="612913" y="19049999"/>
+          <a:ext cx="9152283" cy="4977849"/>
+          <a:chOff x="609600" y="24764999"/>
+          <a:chExt cx="9925050" cy="5552075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="24764999"/>
+            <a:ext cx="9925050" cy="5552075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1876425" y="27860625"/>
+            <a:ext cx="6972300" cy="1152525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149299</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="612914" y="25527000"/>
+          <a:ext cx="8730081" cy="7086600"/>
+          <a:chOff x="609601" y="30099000"/>
+          <a:chExt cx="8683698" cy="7086600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="33" name="Group 32"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="609601" y="30099000"/>
+            <a:ext cx="8683698" cy="5257800"/>
+            <a:chOff x="609601" y="30099000"/>
+            <a:chExt cx="8683698" cy="5257800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Picture 31"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609601" y="30099000"/>
+              <a:ext cx="8683698" cy="5257800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Rectangle 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409699" y="31889700"/>
+              <a:ext cx="7477126" cy="3371850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="Group 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="666749" y="35471100"/>
+            <a:ext cx="7417861" cy="1714500"/>
+            <a:chOff x="628649" y="43014900"/>
+            <a:chExt cx="7417861" cy="1714500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Picture 27"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="628649" y="43014900"/>
+              <a:ext cx="7417861" cy="1714500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Rectangle 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1181099" y="43957875"/>
+              <a:ext cx="4010025" cy="771525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>268751</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>161512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98484</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10075360" y="36547012"/>
+          <a:ext cx="5345950" cy="2778814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>577835</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352596</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="577835" y="5591175"/>
+          <a:ext cx="8968457" cy="12563474"/>
+          <a:chOff x="577835" y="12068175"/>
+          <a:chExt cx="8918761" cy="12563474"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="Group 20"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="577835" y="12068175"/>
+            <a:ext cx="8918761" cy="12563474"/>
+            <a:chOff x="577835" y="12068175"/>
+            <a:chExt cx="8918761" cy="12563474"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Picture 18"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="617780" y="12068175"/>
+              <a:ext cx="8878816" cy="6924675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Picture 19"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="577835" y="19046686"/>
+              <a:ext cx="8880508" cy="5584963"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectangle 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4552950" y="19278601"/>
+              <a:ext cx="800100" cy="238124"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1514474" y="13496923"/>
+            <a:ext cx="7839076" cy="11068051"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>258402</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>105508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="612913" y="33909000"/>
+          <a:ext cx="8839185" cy="5249008"/>
+          <a:chOff x="612913" y="36385500"/>
+          <a:chExt cx="8839185" cy="5249008"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Group 16"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="612913" y="36385500"/>
+            <a:ext cx="8839185" cy="5249008"/>
+            <a:chOff x="609600" y="38481000"/>
+            <a:chExt cx="8792802" cy="5249008"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Picture 15"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="38481000"/>
+              <a:ext cx="8792802" cy="5249008"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Rectangle 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2105026" y="42719625"/>
+              <a:ext cx="5629274" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2095501" y="41481375"/>
+              <a:ext cx="942974" cy="209550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangular Callout 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5690153" y="39698542"/>
+            <a:ext cx="2981739" cy="753718"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -42222"/>
+              <a:gd name="adj2" fmla="val 67995"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Xác</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> thực và </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Phân</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> quyền, chỉ quyền Admin và Manager mới sử dụng được</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rectangular Callout 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2736576" y="38948138"/>
+            <a:ext cx="1537252" cy="385971"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -42222"/>
+              <a:gd name="adj2" fmla="val 67995"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Xác</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> thực token</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2144,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2252,4 +4171,327 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128:P128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>